--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H2">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I2">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J2">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N2">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O2">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P2">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q2">
-        <v>13.64514687574</v>
+        <v>13.088735869755</v>
       </c>
       <c r="R2">
-        <v>122.80632188166</v>
+        <v>117.798622827795</v>
       </c>
       <c r="S2">
-        <v>0.06222227674435259</v>
+        <v>0.06390780218714591</v>
       </c>
       <c r="T2">
-        <v>0.06222227674435261</v>
+        <v>0.06390780218714592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H3">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I3">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J3">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.168486</v>
       </c>
       <c r="O3">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P3">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q3">
-        <v>25.88296646604667</v>
+        <v>30.59872822419</v>
       </c>
       <c r="R3">
-        <v>232.94669819442</v>
+        <v>275.38855401771</v>
       </c>
       <c r="S3">
-        <v>0.1180270990910689</v>
+        <v>0.1494030813967657</v>
       </c>
       <c r="T3">
-        <v>0.1180270990910689</v>
+        <v>0.1494030813967657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H4">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I4">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J4">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N4">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O4">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P4">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q4">
-        <v>29.57773374977</v>
+        <v>63.87883912319001</v>
       </c>
       <c r="R4">
-        <v>266.19960374793</v>
+        <v>574.90955210871</v>
       </c>
       <c r="S4">
-        <v>0.1348753481079081</v>
+        <v>0.3118984335273136</v>
       </c>
       <c r="T4">
-        <v>0.1348753481079081</v>
+        <v>0.3118984335273136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H5">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I5">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J5">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N5">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O5">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P5">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q5">
-        <v>22.80773261272333</v>
+        <v>17.028236956185</v>
       </c>
       <c r="R5">
-        <v>205.26959351451</v>
+        <v>153.254132605665</v>
       </c>
       <c r="S5">
-        <v>0.1040039409955494</v>
+        <v>0.0831430330492328</v>
       </c>
       <c r="T5">
-        <v>0.1040039409955494</v>
+        <v>0.08314303304923282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.273823333333334</v>
+        <v>5.052495</v>
       </c>
       <c r="H6">
-        <v>12.82147</v>
+        <v>15.157485</v>
       </c>
       <c r="I6">
-        <v>0.7470073608494167</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="J6">
-        <v>0.7470073608494168</v>
+        <v>0.7559991453198632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N6">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O6">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P6">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q6">
-        <v>71.90275247412002</v>
+        <v>30.239029315985</v>
       </c>
       <c r="R6">
-        <v>647.1247722670802</v>
+        <v>272.151263843865</v>
       </c>
       <c r="S6">
-        <v>0.3278786959105377</v>
+        <v>0.1476467951594052</v>
       </c>
       <c r="T6">
-        <v>0.3278786959105377</v>
+        <v>0.1476467951594052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.499294</v>
       </c>
       <c r="I7">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J7">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N7">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O7">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P7">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q7">
-        <v>2.659853645148</v>
+        <v>2.158181190802</v>
       </c>
       <c r="R7">
-        <v>23.938682806332</v>
+        <v>19.423630717218</v>
       </c>
       <c r="S7">
-        <v>0.0121290119567803</v>
+        <v>0.01053765757046902</v>
       </c>
       <c r="T7">
-        <v>0.0121290119567803</v>
+        <v>0.01053765757046902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.499294</v>
       </c>
       <c r="I8">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J8">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>18.168486</v>
       </c>
       <c r="O8">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P8">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q8">
         <v>5.045376449876001</v>
@@ -948,10 +948,10 @@
         <v>45.408388048884</v>
       </c>
       <c r="S8">
-        <v>0.02300706709883608</v>
+        <v>0.0246348404709916</v>
       </c>
       <c r="T8">
-        <v>0.02300706709883608</v>
+        <v>0.0246348404709916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.499294</v>
       </c>
       <c r="I9">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J9">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N9">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O9">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P9">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q9">
-        <v>5.765598834954001</v>
+        <v>10.53288189614267</v>
       </c>
       <c r="R9">
-        <v>51.890389514586</v>
+        <v>94.79593706528399</v>
       </c>
       <c r="S9">
-        <v>0.02629130265671612</v>
+        <v>0.05142844499098719</v>
       </c>
       <c r="T9">
-        <v>0.02629130265671612</v>
+        <v>0.05142844499098719</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.499294</v>
       </c>
       <c r="I10">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J10">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N10">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O10">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P10">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q10">
-        <v>4.445919950878</v>
+        <v>2.807759364774</v>
       </c>
       <c r="R10">
-        <v>40.013279557902</v>
+        <v>25.269834282966</v>
       </c>
       <c r="S10">
-        <v>0.02027352758353999</v>
+        <v>0.01370932470932673</v>
       </c>
       <c r="T10">
-        <v>0.02027352758353999</v>
+        <v>0.01370932470932673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.499294</v>
       </c>
       <c r="I11">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="J11">
-        <v>0.145614427591125</v>
+        <v>0.1246555169213799</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N11">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O11">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P11">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q11">
-        <v>14.016030754824</v>
+        <v>4.986066259360667</v>
       </c>
       <c r="R11">
-        <v>126.144276793416</v>
+        <v>44.874596334246</v>
       </c>
       <c r="S11">
-        <v>0.06391351829525252</v>
+        <v>0.02434524917960535</v>
       </c>
       <c r="T11">
-        <v>0.06391351829525252</v>
+        <v>0.02434524917960535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H12">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I12">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J12">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N12">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O12">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P12">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q12">
-        <v>0.473894191696</v>
+        <v>0.1481293188526666</v>
       </c>
       <c r="R12">
-        <v>4.265047725264</v>
+        <v>1.333163869674</v>
       </c>
       <c r="S12">
-        <v>0.002160971648877959</v>
+        <v>0.0007232645919021119</v>
       </c>
       <c r="T12">
-        <v>0.002160971648877959</v>
+        <v>0.000723264591902112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H13">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I13">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J13">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>18.168486</v>
       </c>
       <c r="O13">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P13">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q13">
-        <v>0.8989120882186667</v>
+        <v>0.3462953806013334</v>
       </c>
       <c r="R13">
-        <v>8.090208793968001</v>
+        <v>3.116658425412</v>
       </c>
       <c r="S13">
-        <v>0.004099065933942354</v>
+        <v>0.001690841415245602</v>
       </c>
       <c r="T13">
-        <v>0.004099065933942354</v>
+        <v>0.001690841415245602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H14">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I14">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J14">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N14">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O14">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P14">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q14">
-        <v>1.027230879608</v>
+        <v>0.7229368078457777</v>
       </c>
       <c r="R14">
-        <v>9.245077916472001</v>
+        <v>6.506431270612</v>
       </c>
       <c r="S14">
-        <v>0.004684203450015808</v>
+        <v>0.003529852154506002</v>
       </c>
       <c r="T14">
-        <v>0.004684203450015808</v>
+        <v>0.003529852154506003</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H15">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I15">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J15">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N15">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O15">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P15">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q15">
-        <v>0.7921096129893334</v>
+        <v>0.192713885182</v>
       </c>
       <c r="R15">
-        <v>7.128986516904001</v>
+        <v>1.734424966638</v>
       </c>
       <c r="S15">
-        <v>0.00361204346132122</v>
+        <v>0.000940955717609583</v>
       </c>
       <c r="T15">
-        <v>0.003612043461321219</v>
+        <v>0.0009409557176095831</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1484293333333333</v>
+        <v>0.05718066666666666</v>
       </c>
       <c r="H16">
-        <v>0.445288</v>
+        <v>0.171542</v>
       </c>
       <c r="I16">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="J16">
-        <v>0.02594346932901727</v>
+        <v>0.008555878853679219</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N16">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O16">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P16">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q16">
-        <v>2.497173322848</v>
+        <v>0.3422245555197778</v>
       </c>
       <c r="R16">
-        <v>22.474559905632</v>
+        <v>3.080020999678</v>
       </c>
       <c r="S16">
-        <v>0.01138718483485993</v>
+        <v>0.00167096497441592</v>
       </c>
       <c r="T16">
-        <v>0.01138718483485993</v>
+        <v>0.00167096497441592</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H17">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I17">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J17">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N17">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O17">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P17">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q17">
-        <v>1.258752446098</v>
+        <v>1.162609895161</v>
       </c>
       <c r="R17">
-        <v>11.328772014882</v>
+        <v>10.463489056449</v>
       </c>
       <c r="S17">
-        <v>0.005739948698756162</v>
+        <v>0.005676624842927511</v>
       </c>
       <c r="T17">
-        <v>0.005739948698756162</v>
+        <v>0.005676624842927511</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H18">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I18">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J18">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>18.168486</v>
       </c>
       <c r="O18">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P18">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q18">
-        <v>2.387680224192667</v>
+        <v>2.717938887818001</v>
       </c>
       <c r="R18">
-        <v>21.489122017734</v>
+        <v>24.461449990362</v>
       </c>
       <c r="S18">
-        <v>0.01088789303916356</v>
+        <v>0.0132707621673991</v>
       </c>
       <c r="T18">
-        <v>0.01088789303916356</v>
+        <v>0.01327076216739909</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H19">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I19">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J19">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N19">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O19">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P19">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q19">
-        <v>2.728519161179</v>
+        <v>5.674052192284667</v>
       </c>
       <c r="R19">
-        <v>24.556672450611</v>
+        <v>51.066469730562</v>
       </c>
       <c r="S19">
-        <v>0.01244212875795384</v>
+        <v>0.02770444821504812</v>
       </c>
       <c r="T19">
-        <v>0.01244212875795384</v>
+        <v>0.02770444821504811</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H20">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I20">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J20">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N20">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O20">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P20">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q20">
-        <v>2.103992685286333</v>
+        <v>1.512536961507</v>
       </c>
       <c r="R20">
-        <v>18.935934167577</v>
+        <v>13.612832653563</v>
       </c>
       <c r="S20">
-        <v>0.00959426940026104</v>
+        <v>0.0073851985324344</v>
       </c>
       <c r="T20">
-        <v>0.009594269400261039</v>
+        <v>0.007385198532434399</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3942563333333333</v>
+        <v>0.448789</v>
       </c>
       <c r="H21">
-        <v>1.182769</v>
+        <v>1.346367</v>
       </c>
       <c r="I21">
-        <v>0.06891075275959026</v>
+        <v>0.0671517934068131</v>
       </c>
       <c r="J21">
-        <v>0.06891075275959026</v>
+        <v>0.06715179340681308</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N21">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O21">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P21">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q21">
-        <v>6.632963820924001</v>
+        <v>2.685988551733667</v>
       </c>
       <c r="R21">
-        <v>59.696674388316</v>
+        <v>24.173896965603</v>
       </c>
       <c r="S21">
-        <v>0.03024651286345565</v>
+        <v>0.01311475964900397</v>
       </c>
       <c r="T21">
-        <v>0.03024651286345565</v>
+        <v>0.01311475964900397</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H22">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I22">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J22">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.192726</v>
+        <v>2.590549</v>
       </c>
       <c r="N22">
-        <v>9.578177999999999</v>
+        <v>7.771647</v>
       </c>
       <c r="O22">
-        <v>0.08329539975831041</v>
+        <v>0.08453422544559429</v>
       </c>
       <c r="P22">
-        <v>0.08329539975831041</v>
+        <v>0.0845342254455943</v>
       </c>
       <c r="Q22">
-        <v>0.228768396078</v>
+        <v>0.7555059833273333</v>
       </c>
       <c r="R22">
-        <v>2.058915564702</v>
+        <v>6.799553849946</v>
       </c>
       <c r="S22">
-        <v>0.00104319070954339</v>
+        <v>0.003688876253149736</v>
       </c>
       <c r="T22">
-        <v>0.00104319070954339</v>
+        <v>0.003688876253149737</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H23">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I23">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J23">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>18.168486</v>
       </c>
       <c r="O23">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="P23">
-        <v>0.1579999144276987</v>
+        <v>0.1976233469596758</v>
       </c>
       <c r="Q23">
-        <v>0.433942175786</v>
+        <v>1.766215048238667</v>
       </c>
       <c r="R23">
-        <v>3.905479582074</v>
+        <v>15.895935434148</v>
       </c>
       <c r="S23">
-        <v>0.00197878926468783</v>
+        <v>0.008623821509273832</v>
       </c>
       <c r="T23">
-        <v>0.00197878926468783</v>
+        <v>0.008623821509273832</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H24">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I24">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J24">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.920673000000001</v>
+        <v>12.64302866666667</v>
       </c>
       <c r="N24">
-        <v>20.762019</v>
+        <v>37.929086</v>
       </c>
       <c r="O24">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286033</v>
       </c>
       <c r="P24">
-        <v>0.1805542424033711</v>
+        <v>0.4125645319286034</v>
       </c>
       <c r="Q24">
-        <v>0.495886982469</v>
+        <v>3.687204451660889</v>
       </c>
       <c r="R24">
-        <v>4.462982842221</v>
+        <v>33.184840064948</v>
       </c>
       <c r="S24">
-        <v>0.002261259430777268</v>
+        <v>0.01800335304074852</v>
       </c>
       <c r="T24">
-        <v>0.002261259430777268</v>
+        <v>0.01800335304074852</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H25">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I25">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J25">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.336611</v>
+        <v>3.370263</v>
       </c>
       <c r="N25">
-        <v>16.009833</v>
+        <v>10.110789</v>
       </c>
       <c r="O25">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="P25">
-        <v>0.1392274647431683</v>
+        <v>0.1099776812764186</v>
       </c>
       <c r="Q25">
-        <v>0.382384187983</v>
+        <v>0.9829012544780001</v>
       </c>
       <c r="R25">
-        <v>3.441457691847</v>
+        <v>8.846111290302002</v>
       </c>
       <c r="S25">
-        <v>0.001743683302496694</v>
+        <v>0.00479916926781512</v>
       </c>
       <c r="T25">
-        <v>0.001743683302496694</v>
+        <v>0.004799169267815121</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.07165299999999999</v>
+        <v>0.2916393333333334</v>
       </c>
       <c r="H26">
-        <v>0.214959</v>
+        <v>0.8749180000000001</v>
       </c>
       <c r="I26">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="J26">
-        <v>0.01252398947085083</v>
+        <v>0.04363766549826466</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.823988</v>
+        <v>5.984969666666667</v>
       </c>
       <c r="N26">
-        <v>50.47196400000001</v>
+        <v>17.954909</v>
       </c>
       <c r="O26">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="P26">
-        <v>0.4389229786674514</v>
+        <v>0.1953002143897079</v>
       </c>
       <c r="Q26">
-        <v>1.205489212164</v>
+        <v>1.745452563606889</v>
       </c>
       <c r="R26">
-        <v>10.849402909476</v>
+        <v>15.709073072462</v>
       </c>
       <c r="S26">
-        <v>0.005497066763345644</v>
+        <v>0.008522445427277446</v>
       </c>
       <c r="T26">
-        <v>0.005497066763345643</v>
+        <v>0.008522445427277448</v>
       </c>
     </row>
   </sheetData>
